--- a/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
@@ -451,883 +451,1191 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>140.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1938</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6657</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4402</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2476</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1675</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1675</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6868</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6078</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5284</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4769</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3459</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>007385</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>华泰保兴安盈三个月定期开放混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>27.22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2.40</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>42.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>260103</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城动力平衡混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>69.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>95.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>47.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>960030</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合H</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501070</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发睿阳三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>87.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>260110</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城精选蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>260116</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城核心竞争力混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009805</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009898</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>民生加银医药健康股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>42.92</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011326</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>260112</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>景顺长城能源基建混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>63.93</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000979</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000767</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华富国泰民安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>71.62</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>460002</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009124</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华泰保兴科荣混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>26.90</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009125</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华泰保兴科荣混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>26.90</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001830</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>融通跨界成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002252</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>融通成长30灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>960008</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>景顺长城核心竞争力混合H</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009951</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>广发稳健回报混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>56.25</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009952</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>广发稳健回报混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>56.25</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008060</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>景顺长城价值边际灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>63.61</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008850</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>64.30</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004806</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>长信先机两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>47.59</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>008131</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>景顺长城竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>75.58</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008712</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>景顺长城品质成长混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009098</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>景顺长城价值领航两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>70.46</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1337,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,15 +1666,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1378,25 +1696,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>960008</t>
+          <t>009951</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城核心竞争力混合H</t>
+          <t>广发稳健回报混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>104.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>399011</t>
+          <t>008131</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中海医疗保健主题股票</t>
+          <t>景顺长城竞争优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>59.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>260103</t>
+          <t>010104</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城动力平衡混合</t>
+          <t>景顺长城消费精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>68.02</t>
+          <t>37.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004423</t>
+          <t>000979</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商研究精选灵活配置混合</t>
+          <t>景顺长城沪港深精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>24.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9185</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1490,25 +1848,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004608</t>
+          <t>009190</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长信乐信灵活配置混合A</t>
+          <t>景顺长城核心优选一年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.01</t>
+          <t>59.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8528</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004609</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长信乐信灵活配置混合C</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.01</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5324</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000979</t>
+          <t>008712</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城沪港深精选股票</t>
+          <t>景顺长城品质成长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>83.92</t>
+          <t>26.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4362</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008060</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城价值边际灵活配置混合</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>77.74</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4357</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008786</t>
+          <t>260116</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城健康生活灵活配置混合</t>
+          <t>景顺长城核心竞争力混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>78.16</t>
+          <t>23.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3917</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>166801</t>
+          <t>008850</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浙商聚潮新思维混合</t>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>75.34</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1670</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009623</t>
+          <t>000727</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长城创新驱动混合</t>
+          <t>融通健康产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>78.25</t>
+          <t>14.82</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0404</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501007</t>
+          <t>010377</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+          <t>广发价值核心混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>71.45</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0074</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501008</t>
+          <t>260103</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+          <t>景顺长城动力平衡混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>14.64</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>68.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7642</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000167</t>
+          <t>008786</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发聚优灵活配置混合A</t>
+          <t>长城健康生活灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7149</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>960009</t>
+          <t>009623</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发聚优灵活配置混合H</t>
+          <t>长城创新驱动混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>15.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6862</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008850</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+          <t>景顺长城价值边际灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>77.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6723</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001827</t>
+          <t>010348</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富国研究优选沪港深灵活配置混合</t>
+          <t>景顺长城泰保三个月定期开放混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>77.43</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6191</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>000654</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>华商新锐产业灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6089</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>399011</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>中海医疗保健主题股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5751</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000339</t>
+          <t>501070</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>长城医疗保健混合</t>
+          <t>广发睿阳三年定期开放混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>81.01</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>64.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5565</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009898</t>
+          <t>260112</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>民生加银医药健康股票</t>
+          <t>景顺长城能源基建混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>80.65</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>60.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4922</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1966,25 +2494,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009951</t>
+          <t>009952</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广发稳健回报混合A</t>
+          <t>广发稳健回报混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>54.46</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>3.54</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4683</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009952</t>
+          <t>000339</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广发稳健回报混合C</t>
+          <t>长城医疗保健混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>54.46</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3904</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2022,25 +2570,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>260112</t>
+          <t>009023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>景顺长城能源基建混合</t>
+          <t>鹏华稳健回报混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>60.41</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>260116</t>
+          <t>009898</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>景顺长城核心竞争力混合A</t>
+          <t>民生加银医药健康股票</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010104</t>
+          <t>010709</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>景顺长城消费精选混合A</t>
+          <t>安信医药健康主题股票A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010105</t>
+          <t>519993</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>景顺长城消费精选混合C</t>
+          <t>长信增利动态策略混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>7</v>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>000654</t>
+          <t>000167</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华商新锐产业灵活配置混合</t>
+          <t>广发聚优灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -2162,26 +2760,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>000727</t>
+          <t>166801</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合A</t>
+          <t>浙商聚潮新思维混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>630011</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>华商主题精选混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>000767</t>
+          <t>010378</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华富国泰民安灵活配置混合</t>
+          <t>广发价值核心混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>70.71</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2246,25 +2874,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>010348</t>
+          <t>002252</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>景顺长城泰保三个月定期开放混合</t>
+          <t>融通成长30灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>010377</t>
+          <t>008961</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>广发价值核心混合A</t>
+          <t>华商科技创新混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>42.21</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010378</t>
+          <t>004423</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>广发价值核心混合C</t>
+          <t>华商研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>42.21</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>10</v>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>000994</t>
+          <t>005305</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>建信睿盈灵活配置混合A</t>
+          <t>长信合利混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>85.98</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>7</v>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>000995</t>
+          <t>008134</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>建信睿盈灵活配置混合C</t>
+          <t>鹏华优选价值股票</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>85.98</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>7</v>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>006882</t>
+          <t>004608</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华泰保兴健康消费混合A</t>
+          <t>长信乐信灵活配置混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>77.27</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>9</v>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2414,26 +3102,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>006883</t>
+          <t>009188</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华泰保兴健康消费混合C</t>
+          <t>鹏华股息精选混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>77.27</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>9</v>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2442,26 +3140,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>501070</t>
+          <t>010105</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>广发睿阳三年定期开放混合</t>
+          <t>景顺长城消费精选混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>64.33</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>010709</t>
+          <t>005522</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票A</t>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>010710</t>
+          <t>006882</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票C</t>
+          <t>华泰保兴健康消费混合A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -2526,26 +3254,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>007281</t>
+          <t>006883</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>嘉合消费升级混合</t>
+          <t>华泰保兴健康消费混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>90.22</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>7</v>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -2564,15 +3302,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>93.04</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>9.64</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,26 +3330,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>519993</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>长信增利动态策略混合</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2610,26 +3368,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>002125</t>
+          <t>501007</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>广发新兴成长灵活配置混合</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>69.11</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>10</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2638,26 +3406,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>630011</t>
+          <t>004609</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华商主题精选混合</t>
+          <t>长信乐信灵活配置混合C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -2666,26 +3444,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>002252</t>
+          <t>000767</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>融通成长30灵活配置混合</t>
+          <t>华富国泰民安灵活配置混合</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
+          <t>70.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2694,26 +3482,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>008712</t>
+          <t>960008</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>景顺长城品质成长混合</t>
+          <t>景顺长城核心竞争力混合H</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>90.18</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>7</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -2722,26 +3520,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>005305</t>
+          <t>000994</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>长信合利混合A</t>
+          <t>建信睿盈灵活配置混合A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>33.81</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>8</v>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2750,26 +3558,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>005306</t>
+          <t>001827</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>长信合利混合C</t>
+          <t>富国研究优选沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>33.81</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>8</v>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -2778,25 +3596,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>008961</t>
+          <t>010710</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华商科技创新混合</t>
+          <t>安信医药健康主题股票C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>85.75</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2806,26 +3634,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>005522</t>
+          <t>002125</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+          <t>广发新兴成长灵活配置混合</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>23.39</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>6</v>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2834,26 +3672,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>009023</t>
+          <t>007281</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鹏华稳健回报混合</t>
+          <t>嘉合消费升级混合</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>4</v>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2862,26 +3710,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>009098</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>景顺长城价值领航两年持有期混合</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>69.93</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>2</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -2890,26 +3748,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>008131</t>
+          <t>005306</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>景顺长城竞争优势混合</t>
+          <t>长信合利混合C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>7</v>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -2918,26 +3786,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>008134</t>
+          <t>000995</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鹏华优选价值股票</t>
+          <t>建信睿盈灵活配置混合C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>6</v>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2946,26 +3824,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>004806</t>
+          <t>501008</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>长信先机两年定期开放灵活配置混合</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>72.80</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>4</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -2974,25 +3862,35 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>009188</t>
+          <t>004806</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鹏华股息精选混合</t>
+          <t>长信先机两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>95.13</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
+          <t>72.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3002,26 +3900,30 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>009190</t>
+          <t>960009</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>景顺长城核心优选一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>90.24</t>
-        </is>
-      </c>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>10</v>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3908,7 +3909,6 @@
           <t>广发聚优灵活配置混合H</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>88.28</t>
@@ -3924,6 +3924,1620 @@
       </c>
       <c r="H60" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6915</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3695</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2591</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1318</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0056</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9925</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9183</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8564</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4987</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4803</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3979</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>71.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5543,4 +5544,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6474,4 +6475,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6483,7 +6484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6494,17 +6495,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6514,14 +6535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.85</v>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>136.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4910</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -6530,14 +6573,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.52</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7887</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6546,14 +6611,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>59</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.51</v>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5819</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6562,13 +6649,2773 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5536</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4769</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9055</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6606</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6456</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5743</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5405</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4965</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4930</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4557</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>59.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4330</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2865</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010036</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010038</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>21.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9314,7 +9315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9325,17 +9326,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9345,14 +9366,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.73</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4428</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -9361,14 +9404,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.85</v>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9765</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -9377,14 +9442,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.52</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3862</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -9393,14 +9480,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>59</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.51</v>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -9409,13 +9518,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>59</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>21.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9827,7 +9828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9838,17 +9839,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9858,14 +9879,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.76</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0059</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -9874,14 +9917,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>73</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.73</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6966</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -9890,14 +9955,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.85</v>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6541</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -9906,14 +9993,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>41</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.52</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -9922,14 +10031,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>59</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.51</v>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -9938,13 +10069,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>41</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>59</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>21.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>4.26</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.76</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>23.73</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
-        <v>3.85</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>16.52</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
-        <v>31.51</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>59</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>21.8</v>
       </c>
     </row>
@@ -600,6 +617,1464 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001257</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4948</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2187</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7287</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0884</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8810</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8222</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7200</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6148</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001258</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011404</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014841</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011403</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014842</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>016352</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015637</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +2510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1547,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4377,7 +5852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5307,7 +6782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6921,7 +8396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9212,7 +10687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002727-一心堂.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>13.21</v>
+        <v>20.31</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>4.26</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>3.76</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>23.73</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="D6" t="n">
-        <v>3.85</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>16.52</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
-        <v>31.51</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1224 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>59</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>21.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>140.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1938</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6657</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4402</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2476</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1675</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1675</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6868</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6078</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5284</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4769</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3459</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007385</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴安盈三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>42.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>47.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1828,2570 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9043</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4183</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2721</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9563</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7645</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4205</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011404</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3687</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3533</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013895</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3195</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3165</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015553</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011403</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015559</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长江启航混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013896</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011876</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015554</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012704</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银兴利稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014841</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011877</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银双息回报混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>69.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012705</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银兴利稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014842</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015560</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长江启航混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015389</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>017213</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014454</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银双息回报混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>69.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2074,7 +5849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2510,7 +6285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3022,7 +6797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5852,7 +9627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6782,7 +10557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8396,7 +12171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10685,1198 +14460,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008131</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>102.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.1048</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009951</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发稳健回报混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>140.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>56.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.8754</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.1938</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>260110</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城精选蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>43.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.6657</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000979</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>27.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.4402</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009805</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.4168</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008712</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城品质成长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>34.85</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.2476</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>260116</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城核心竞争力混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>32.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.1675</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>960008</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城核心竞争力混合H</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>32.43</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.1675</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009098</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城价值领航两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>21.73</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>70.46</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.9018</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008850</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16.59</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>64.30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.6868</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008060</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城价值边际灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>13.75</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>63.61</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.6078</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>260103</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>景顺长城动力平衡混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>16.26</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>69.90</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.5284</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501070</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发睿阳三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>87.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5001</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>260112</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>景顺长城能源基建混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>63.93</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.4769</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3459</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009952</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发稳健回报混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>13.23</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>56.25</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2699</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>960030</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合H</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2162</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>460002</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2162</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002252</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>融通成长30灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2026</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007385</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华泰保兴安盈三个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1272</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>95.63</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1215</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009124</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华泰保兴科荣混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>26.90</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1212</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009898</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>民生加银医药健康股票</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>42.92</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0833</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0529</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001830</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>融通跨界成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>000767</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华富国泰民安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>71.62</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011326</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>004806</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>长信先机两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>47.59</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009125</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华泰保兴科荣混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>26.90</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>